--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -471,11 +471,7 @@
           <t>NGI-7893</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -505,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 22, 22, 22, 22</t>
+          <t xml:space="preserve"> 22, 22, 22, 22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 22, 22, 22, 22</t>
+          <t xml:space="preserve"> 22, 22, 22, 22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,11 +563,7 @@
           <t>NHZ-5828</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -599,11 +591,7 @@
           <t>NHZ-5828</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -631,11 +619,7 @@
           <t>NHZ-5828</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -663,11 +647,7 @@
           <t>NIB-5967</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -695,11 +675,7 @@
           <t>NIB-5967</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -727,11 +703,7 @@
           <t>NIB-5967</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -759,11 +731,7 @@
           <t>NIB-5967</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -791,11 +759,7 @@
           <t>NIB-5967</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -823,11 +787,7 @@
           <t>NIB-5967</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -855,11 +815,7 @@
           <t>HZA-1907</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -889,7 +845,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 22</t>
+          <t xml:space="preserve"> 22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -919,11 +875,7 @@
           <t>HZA-1907</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -951,11 +903,7 @@
           <t>HZA-1907</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -983,11 +931,7 @@
           <t>HXY-3834</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1015,11 +959,7 @@
           <t>HXY-3834</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1047,11 +987,7 @@
           <t>HXY-3834</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1079,11 +1015,7 @@
           <t>HXY-3834</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1111,11 +1043,7 @@
           <t>NWS-3E07</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1143,11 +1071,7 @@
           <t>NWS-3E07</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1175,11 +1099,7 @@
           <t>NWS-3E07</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1207,11 +1127,7 @@
           <t>NWS-3E07</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1241,7 +1157,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 22, 23, 22</t>
+          <t xml:space="preserve"> 22, 23, 22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1271,11 +1187,7 @@
           <t>NGC-8763</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1303,11 +1215,7 @@
           <t>NGC-8763</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1335,11 +1243,7 @@
           <t>NGC-8763</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1367,11 +1271,7 @@
           <t>NWS-3453</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1399,11 +1299,7 @@
           <t>NWS-3453</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1431,11 +1327,7 @@
           <t>NWS-3453</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1463,11 +1355,7 @@
           <t>NWS-3453</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1495,11 +1383,7 @@
           <t>NGF-6733</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1527,11 +1411,7 @@
           <t>NGF-6733</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1559,11 +1439,7 @@
           <t>NNH-4900</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1591,11 +1467,7 @@
           <t>NNH-4900</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1623,11 +1495,7 @@
           <t>NNH-4900</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1655,11 +1523,7 @@
           <t>NNH-4900</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1687,11 +1551,7 @@
           <t>NIB-5997</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1719,11 +1579,7 @@
           <t>NIB-5997</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1751,11 +1607,7 @@
           <t>NIB-5997</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1783,11 +1635,7 @@
           <t>NIB-5997</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1815,11 +1663,7 @@
           <t>HZA-2317</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1847,11 +1691,7 @@
           <t>HZA-2317</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1879,11 +1719,7 @@
           <t>DTC-6607</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1911,11 +1747,7 @@
           <t>DTC-6607</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1943,11 +1775,7 @@
           <t>DTC-6607</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -1975,11 +1803,7 @@
           <t>DTC-6607</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2007,11 +1831,7 @@
           <t>NUP-8066</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2039,11 +1859,7 @@
           <t>NUP-8066</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2071,11 +1887,7 @@
           <t>NUP-8066</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2103,11 +1915,7 @@
           <t>NUP-8066</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2135,11 +1943,7 @@
           <t>HZA-1997</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2167,11 +1971,7 @@
           <t>HZA-1997</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2199,11 +1999,7 @@
           <t>HZA-1997</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2231,11 +2027,7 @@
           <t>HZA-1997</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2265,7 +2057,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~, 22</t>
+          <t xml:space="preserve"> 22</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2295,11 +2087,7 @@
           <t>DJB-2167</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2327,11 +2115,7 @@
           <t>DJB-2167</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2359,11 +2143,7 @@
           <t>DJB-2167</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2391,11 +2171,7 @@
           <t>DJB-2167</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2423,11 +2199,7 @@
           <t>DJB-2167</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2455,11 +2227,7 @@
           <t>JRJ-6244</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2487,11 +2255,7 @@
           <t>JRJ-6244</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2519,11 +2283,7 @@
           <t>JRJ-6244</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2551,11 +2311,7 @@
           <t>JRJ-6244</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2583,11 +2339,7 @@
           <t>LWI-6376</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2615,11 +2367,7 @@
           <t>LWI-6376</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2647,11 +2395,7 @@
           <t>DJE-6560</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2679,11 +2423,7 @@
           <t>DJE-6560</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2711,11 +2451,7 @@
           <t>BXC-0096</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2743,11 +2479,7 @@
           <t>BXC-0096</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2775,11 +2507,7 @@
           <t>HYG-6364</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2807,11 +2535,7 @@
           <t>HYG-6364</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2839,11 +2563,7 @@
           <t>HYG-6364</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2871,11 +2591,7 @@
           <t>HYG-6364</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2903,11 +2619,7 @@
           <t>JRJ-6546</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2935,11 +2647,7 @@
           <t>JRJ-6546</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2967,11 +2675,7 @@
           <t>KHO7C77</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -2999,11 +2703,7 @@
           <t>KHO7C77</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3031,11 +2731,7 @@
           <t>BXC-0096</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3063,11 +2759,7 @@
           <t>BXC-0096</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3097,7 +2789,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~, 22</t>
+          <t xml:space="preserve"> 22</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3127,11 +2819,7 @@
           <t>NGC-8623</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3159,11 +2847,7 @@
           <t>NGC-8623</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3191,11 +2875,7 @@
           <t>NGC-8623</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3225,7 +2905,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~, 22</t>
+          <t xml:space="preserve"> 22</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3255,11 +2935,7 @@
           <t>NGC-9103</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3287,11 +2963,7 @@
           <t>NGC-9103</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>MAIO</t>
@@ -3319,11 +2991,7 @@
           <t>NGC-9103</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>MAIO</t>

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 12, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~, 12, 14, 15, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~, 12, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~, 12, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~, 17, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~, 12, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~, 12, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 12, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 15, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 12, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 12, 13</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~, 12, 13, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 12, 13, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 12, 13, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 15, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~, 12, 13, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 14, 15, 16, 17, 19</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 12, 13, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~, 14, 15, 16, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 12, 13, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~, 14, 15, 16, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~, 13, 14, 16, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~, 12, 15, 17</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 23, 24, 26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24, 26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 24, 26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,12 +980,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HXY-3834</t>
+          <t>HZA-1907</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HXY-3834</t>
+          <t>HZA-1907</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,12 +1044,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NQQ-3947</t>
+          <t>HXY-3834</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 23, 24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1076,7 +1076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NQQ-3947</t>
+          <t>HXY-3834</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NWS-3E07</t>
+          <t>NQQ-3947</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1204,12 +1204,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NWS-3E07</t>
+          <t>NQQ-3947</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1300,12 +1300,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGC-8763</t>
+          <t>NWS-3E07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1332,12 +1332,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGC-8763</t>
+          <t>NWS-3E07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NWS-3453</t>
+          <t>NGC-8763</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NWS-3453</t>
+          <t>NGC-8763</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1556,12 +1556,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NGF-6733</t>
+          <t>NWS-3453</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NGF-6733</t>
+          <t>NWS-3453</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NNH-4900</t>
+          <t>NGF-6733</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1652,7 +1652,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NNH-4900</t>
+          <t>NGF-6733</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NIB-5997</t>
+          <t>NNH-4900</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NIB-5997</t>
+          <t>NNH-4900</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1876,12 +1876,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HZA-2317</t>
+          <t>NIB-5997</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SÃO JOÃO DA SERRA</t>
+          <t>CAMPO MAIOR</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HZA-2317</t>
+          <t>NIB-5997</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1933,14 +1933,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SÃO JOÃO DA SERRA</t>
+          <t>CAMPO MAIOR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DTC-6607</t>
+          <t>HZA-2317</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DTC-6607</t>
+          <t>HZA-2317</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2068,12 +2068,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NUP-8066</t>
+          <t>DTC-6607</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2100,12 +2100,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NUP-8066</t>
+          <t>DTC-6607</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HZA-1997</t>
+          <t>NUP-8066</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,19 +2221,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SAO MIGUEL DO TAPUIO</t>
+          <t>SÃO JOÃO DA SERRA</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HZA-1997</t>
+          <t>NUP-8066</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SAO MIGUEL DO TAPUIO</t>
+          <t>SÃO JOÃO DA SERRA</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2324,12 +2324,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DJB-2167</t>
+          <t>HZA-1997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DJB-2167</t>
+          <t>HZA-1997</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2516,12 +2516,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LWI-6376</t>
+          <t>DJB-2167</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SIGEFREDO PACHECO</t>
+          <t>SAO MIGUEL DO TAPUIO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LWI-6376</t>
+          <t>DJB-2167</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2573,19 +2573,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SIGEFREDO PACHECO</t>
+          <t>SAO MIGUEL DO TAPUIO</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DJE-6560</t>
+          <t>LWI-6376</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DJE-6560</t>
+          <t>LWI-6376</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BXC-0096</t>
+          <t>DJE-6560</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BXC-0096</t>
+          <t>DJE-6560</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,12 +2708,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HYG-6364</t>
+          <t>BXC-0096</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2723,24 +2723,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CASTELO DO PIAUI</t>
+          <t>SIGEFREDO PACHECO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HYG-6364</t>
+          <t>BXC-0096</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2755,17 +2755,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CASTELO DO PIAUI</t>
+          <t>SIGEFREDO PACHECO</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JRJ-6546</t>
+          <t>HYG-6364</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>JRJ-6546</t>
+          <t>HYG-6364</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KHO7C77</t>
+          <t>JRJ-6546</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,12 +2932,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>KHO7C77</t>
+          <t>JRJ-6546</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21, 23, 24, 26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,12 +2964,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NGC-8623</t>
+          <t>KHO7C77</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NGC-8623</t>
+          <t>KHO7C77</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3092,7 +3092,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NGC-9103</t>
+          <t>NGC-8623</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NGC-9103</t>
+          <t>NGC-8623</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3212,6 +3212,70 @@
         </is>
       </c>
       <c r="F87" t="inlineStr">
+        <is>
+          <t>CASTELO DO PIAUI</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NGC-9103</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NÃO APRESENTA ROTA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>CASTELO DO PIAUI</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NGC-9103</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>JUNHO</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>CASTELO DO PIAUI</t>
         </is>

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~, 21, 23, 24, 26</t>
+          <t>~, 21, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 26</t>
+          <t>~, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 26</t>
+          <t>~, 22, 23, 24, 26, 28, 29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 22, 23, 26</t>
+          <t>~, 22, 23, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~, 24, 26</t>
+          <t>~, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 21, 24, 26</t>
+          <t>~, 21, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 27, 28, 29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 28, 29, 30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 28, 29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 26</t>
+          <t>~, 21, 22, 23, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 28, 29, 30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 27, 28, 29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 23</t>
+          <t>~, 23, 28, 29, 30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 27, 28, 29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 28, 29, 30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 27, 28, 29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 28, 29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~, 21, 23, 24, 26</t>
+          <t>~, 21, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 26, 28, 29</t>
+          <t>~, 22, 23, 24, 26, 28, 29, 30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 21, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~, 27, 28, 29</t>
+          <t>~, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 28, 29</t>
+          <t>~, 28, 29, 30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 26, 27, 28, 29</t>
+          <t>~, 21, 22, 23, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 27, 28, 29</t>
+          <t>~, 22, 23, 24, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 27, 28, 29</t>
+          <t>~, 22, 23, 24, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~, 26</t>
+          <t>~, 26, 30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~, 27, 28, 29</t>
+          <t>~, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 28, 29</t>
+          <t>~, 28, 29, 30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~, 21, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="51">
   <si>
     <t>PLACA</t>
   </si>
@@ -39,30 +39,39 @@
     <t>CIDADE</t>
   </si>
   <si>
+    <t>LNB-8308</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>JULHO</t>
+  </si>
+  <si>
+    <t>MANHÃ</t>
+  </si>
+  <si>
+    <t>NÃO FEZ A ROTA</t>
+  </si>
+  <si>
+    <t>BOA HORA</t>
+  </si>
+  <si>
+    <t>~, 01</t>
+  </si>
+  <si>
+    <t>NÃO APRESENTA ROTA</t>
+  </si>
+  <si>
+    <t>BWY-4889</t>
+  </si>
+  <si>
     <t>NGI-7893</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>MANHÃ</t>
-  </si>
-  <si>
-    <t>NÃO FEZ A ROTA</t>
-  </si>
-  <si>
-    <t>BOA HORA</t>
-  </si>
-  <si>
-    <t>NÃO APRESENTA ROTA</t>
-  </si>
-  <si>
     <t>NHZ-5828</t>
   </si>
   <si>
-    <t>BWY-4889</t>
-  </si>
-  <si>
     <t>TARDE</t>
   </si>
   <si>
@@ -84,6 +93,9 @@
     <t>HXY-3834</t>
   </si>
   <si>
+    <t>NQQ-3947</t>
+  </si>
+  <si>
     <t>NWS-3E07</t>
   </si>
   <si>
@@ -126,6 +138,9 @@
     <t>INTEGRAL</t>
   </si>
   <si>
+    <t>JRJ-5917</t>
+  </si>
+  <si>
     <t>LWI-6376</t>
   </si>
   <si>
@@ -156,26 +171,14 @@
     <t>NGC-9103</t>
   </si>
   <si>
-    <t>NQQ-3947</t>
-  </si>
-  <si>
-    <t>LNB-8308</t>
-  </si>
-  <si>
-    <t>DCP-1236</t>
-  </si>
-  <si>
-    <t>JRJ-5917</t>
-  </si>
-  <si>
-    <t>JULHO</t>
+    <t>DPC-1236</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,20 +190,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,16 +227,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C97"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,1922 +564,1922 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZENTE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HXY-3834</t>
+          <t>HZA-1907</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NQQ-3947</t>
+          <t>HXY-3834</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NWS-3E07</t>
+          <t>NQQ-3947</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NGC-8763</t>
+          <t>NWS-3E07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DPC-1236</t>
+          <t>NGC-8763</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NWS-3453</t>
+          <t>DPC-1236</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1635,12 +1635,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NGF-6733</t>
+          <t>NWS-3453</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1763,12 +1763,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NNH-4900</t>
+          <t>NGF-6733</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NIB-5997</t>
+          <t>NNH-4900</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HZA-2317</t>
+          <t>NIB-5997</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SÃO JOÃO DA SERRA</t>
+          <t>CAMPO MAIOR</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2132,12 +2132,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DTC-6607</t>
+          <t>HZA-2317</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2147,12 +2147,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,12 +2260,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NUP-8066</t>
+          <t>DTC-6607</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,12 +2388,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HZA-1997</t>
+          <t>NUP-8066</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SAO MIGUEL DO TAPUIO</t>
+          <t>SÃO JOÃO DA SERRA</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2516,7 +2516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DJB-2167</t>
+          <t>HZA-1997</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>INTEGRAL</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,12 +2708,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>JRJ-5917</t>
+          <t>DJB-2167</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04, 04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>INTEGRAL</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,12 +2836,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LWI-6376</t>
+          <t>JRJ-5917</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SIGEFREDO PACHECO</t>
+          <t>SAO MIGUEL DO TAPUIO</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DJE-6560</t>
+          <t>LWI-6376</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,12 +2964,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BXC-0096</t>
+          <t>DJE-6560</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HYG-6364</t>
+          <t>BXC-0096</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CASTELO DO PIAUI</t>
+          <t>SIGEFREDO PACHECO</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3156,12 +3156,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>JRJ-6546</t>
+          <t>HYG-6364</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3220,12 +3220,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KHO7C77</t>
+          <t>JRJ-6546</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3284,12 +3284,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NGC-8623</t>
+          <t>KHO7C77</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3299,12 +3299,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3412,12 +3412,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NGC-9103</t>
+          <t>NGC-8623</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3427,12 +3427,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3528,10 +3528,42 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
+        <is>
+          <t>CASTELO DO PIAUI</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NGC-9103</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>JULHO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>CASTELO DO PIAUI</t>
         </is>

--- a/INFORMATIVO 5° GRE.xlsx
+++ b/INFORMATIVO 5° GRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~, 03</t>
+          <t>~, 03, 08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 01, 04</t>
+          <t>~, 01, 04, 06, 07</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~, 01, 04</t>
+          <t>~, 01, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 05, 06, 07, 10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 05, 10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NOITE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>ROTA NÃO CONDIZENTE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 06, 07</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LWI-6376</t>
+          <t>JRJ-5917</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~, 01, 04</t>
+          <t>~, 01, 03, 04, 05, 08</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SIGEFREDO PACHECO</t>
+          <t>SAO MIGUEL DO TAPUIO</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~, 03</t>
+          <t>~, 01, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,12 +2932,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DJE-6560</t>
+          <t>LWI-6376</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 03</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,12 +2996,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BXC-0096</t>
+          <t>DJE-6560</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HYG-6364</t>
+          <t>BXC-0096</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>NOITE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CASTELO DO PIAUI</t>
+          <t>SIGEFREDO PACHECO</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3188,12 +3188,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>JRJ-6546</t>
+          <t>HYG-6364</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KHO7C77</t>
+          <t>JRJ-6546</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 06, 08</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3316,12 +3316,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NGC-8623</t>
+          <t>KHO7C77</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3444,12 +3444,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NGC-9103</t>
+          <t>NGC-8623</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MANHÃ</t>
+          <t>TARDE</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TARDE</t>
+          <t>MANHÃ</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NÃO APRESENTA ROTA</t>
+          <t>NÃO FEZ A ROTA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3560,10 +3560,42 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>NÃO FEZ A ROTA</t>
+          <t>NÃO APRESENTA ROTA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>CASTELO DO PIAUI</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NGC-9103</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>JULHO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TARDE</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NÃO FEZ A ROTA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>CASTELO DO PIAUI</t>
         </is>
